--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>649542.8746204936</v>
+        <v>638497.7368839115</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="C2" t="n">
         <v>553011.5286340009</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="C4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="D4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="E4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="F4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="G4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="H4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="I4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="J4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="K4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="L4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="M4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="N4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="O4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="P4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79553.53113981799</v>
+        <v>77734.67863818025</v>
       </c>
       <c r="C6" t="n">
-        <v>79553.53113981799</v>
+        <v>77734.67863818037</v>
       </c>
       <c r="D6" t="n">
-        <v>79553.53113981787</v>
+        <v>77734.67863818025</v>
       </c>
       <c r="E6" t="n">
-        <v>-38639.50678321087</v>
+        <v>-39717.36810593229</v>
       </c>
       <c r="F6" t="n">
-        <v>94460.4932167892</v>
+        <v>93382.63189406772</v>
       </c>
       <c r="G6" t="n">
-        <v>94460.4932167892</v>
+        <v>93382.63189406772</v>
       </c>
       <c r="H6" t="n">
-        <v>94460.4932167892</v>
+        <v>93382.63189406772</v>
       </c>
       <c r="I6" t="n">
-        <v>94460.4932167892</v>
+        <v>93382.63189406772</v>
       </c>
       <c r="J6" t="n">
-        <v>94460.4932167892</v>
+        <v>93382.63189406772</v>
       </c>
       <c r="K6" t="n">
-        <v>94460.4932167892</v>
+        <v>93382.63189406772</v>
       </c>
       <c r="L6" t="n">
-        <v>94460.4932167892</v>
+        <v>93382.63189406772</v>
       </c>
       <c r="M6" t="n">
-        <v>94460.4932167892</v>
+        <v>93382.63189406772</v>
       </c>
       <c r="N6" t="n">
-        <v>94460.4932167892</v>
+        <v>93382.63189406772</v>
       </c>
       <c r="O6" t="n">
-        <v>94460.4932167892</v>
+        <v>93382.63189406772</v>
       </c>
       <c r="P6" t="n">
-        <v>94460.4932167892</v>
+        <v>93382.63189406772</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638497.7368839115</v>
+        <v>652224.0950213302</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26316,10 @@
         <v>553011.5286340008</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340012</v>
       </c>
       <c r="E2" t="n">
         <v>154332.7400023158</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="C4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="G4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="H4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="I4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="J4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="K4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="L4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="M4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="N4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="O4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="P4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77734.67863818025</v>
+        <v>77734.67863818034</v>
       </c>
       <c r="C6" t="n">
-        <v>77734.67863818037</v>
+        <v>77734.67863818028</v>
       </c>
       <c r="D6" t="n">
-        <v>77734.67863818025</v>
+        <v>77734.67863818069</v>
       </c>
       <c r="E6" t="n">
-        <v>-39717.36810593229</v>
+        <v>-39717.36810593236</v>
       </c>
       <c r="F6" t="n">
-        <v>93382.63189406772</v>
+        <v>93382.63189406773</v>
       </c>
       <c r="G6" t="n">
-        <v>93382.63189406772</v>
+        <v>93382.63189406773</v>
       </c>
       <c r="H6" t="n">
-        <v>93382.63189406772</v>
+        <v>93382.63189406773</v>
       </c>
       <c r="I6" t="n">
-        <v>93382.63189406772</v>
+        <v>93382.63189406773</v>
       </c>
       <c r="J6" t="n">
-        <v>93382.63189406772</v>
+        <v>93382.63189406773</v>
       </c>
       <c r="K6" t="n">
-        <v>93382.63189406772</v>
+        <v>93382.63189406773</v>
       </c>
       <c r="L6" t="n">
-        <v>93382.63189406772</v>
+        <v>93382.63189406773</v>
       </c>
       <c r="M6" t="n">
-        <v>93382.63189406772</v>
+        <v>93382.63189406773</v>
       </c>
       <c r="N6" t="n">
-        <v>93382.63189406772</v>
+        <v>93382.63189406773</v>
       </c>
       <c r="O6" t="n">
-        <v>93382.63189406772</v>
+        <v>93382.63189406773</v>
       </c>
       <c r="P6" t="n">
-        <v>93382.63189406772</v>
+        <v>93382.63189406773</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>652224.0950213302</v>
+        <v>568438.6932597051</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>553011.5286340008</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.5286340012</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="E2" t="n">
         <v>154332.7400023158</v>
@@ -26429,37 +26429,37 @@
         <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
+        <v>57338.49600323976</v>
+      </c>
+      <c r="G4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>57338.49600323976</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57338.49600323977</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77734.67863818034</v>
+        <v>77690.54285949921</v>
       </c>
       <c r="C6" t="n">
-        <v>77734.67863818028</v>
+        <v>77690.54285949927</v>
       </c>
       <c r="D6" t="n">
-        <v>77734.67863818069</v>
+        <v>77690.54285949933</v>
       </c>
       <c r="E6" t="n">
-        <v>-39717.36810593236</v>
+        <v>-54527.38494504621</v>
       </c>
       <c r="F6" t="n">
-        <v>93382.63189406773</v>
+        <v>78572.61505495383</v>
       </c>
       <c r="G6" t="n">
-        <v>93382.63189406773</v>
+        <v>78572.61505495383</v>
       </c>
       <c r="H6" t="n">
-        <v>93382.63189406773</v>
+        <v>78572.61505495383</v>
       </c>
       <c r="I6" t="n">
-        <v>93382.63189406773</v>
+        <v>78572.61505495383</v>
       </c>
       <c r="J6" t="n">
-        <v>93382.63189406773</v>
+        <v>78572.61505495383</v>
       </c>
       <c r="K6" t="n">
-        <v>93382.63189406773</v>
+        <v>78572.61505495383</v>
       </c>
       <c r="L6" t="n">
-        <v>93382.63189406773</v>
+        <v>78572.61505495383</v>
       </c>
       <c r="M6" t="n">
-        <v>93382.63189406773</v>
+        <v>78572.61505495383</v>
       </c>
       <c r="N6" t="n">
-        <v>93382.63189406773</v>
+        <v>78572.61505495383</v>
       </c>
       <c r="O6" t="n">
-        <v>93382.63189406773</v>
+        <v>78572.61505495383</v>
       </c>
       <c r="P6" t="n">
-        <v>93382.63189406773</v>
+        <v>78572.61505495383</v>
       </c>
     </row>
   </sheetData>
